--- a/data/stat probs/trevelin queen stat probs - condition.xlsx
+++ b/data/stat probs/trevelin queen stat probs - condition.xlsx
@@ -25,30 +25,30 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 full" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gsw 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gsw 2023 full" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 before 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="62 after 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="62 after 2023 full" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="den 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 after 2023 full" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gsw 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gsw 2023 full" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 before 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="40 before 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="por 2023 full" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="62 after 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="62 after 2023 full" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,28 +529,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1633,16 +1633,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1893,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2017,28 +2017,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2531,28 +2531,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2982,7 +2982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3077,10 +3077,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -3095,73 +3095,9 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3239,28 +3175,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -3685,6 +3621,136 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3753,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3878,7 +3944,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3947,28 +4207,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4136,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4205,28 +4465,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -4394,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4463,28 +4723,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4588,7 +4848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4657,28 +4917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4774,1034 +5034,6 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5879,28 +5111,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6393,28 +5625,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6844,7 +6076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6907,28 +6139,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6957,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7009,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7041,10 +6273,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7073,10 +6305,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7088,6 +6320,262 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7165,22 +6653,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7360,7 +6848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7423,28 +6911,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7473,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7525,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -7557,10 +7045,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7589,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -7604,6 +7092,262 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>
@@ -7681,22 +7425,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7939,22 +7683,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8134,7 +7878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8197,22 +7941,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8229,10 +7973,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -8261,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -8282,6 +8026,102 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8296,7 +8136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8359,22 +8199,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8391,10 +8231,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -8423,10 +8263,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -8444,6 +8284,102 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8527,16 +8463,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8689,16 +8625,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8782,7 +8718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8851,16 +8787,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8898,6 +8834,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8912,7 +8880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8981,16 +8949,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9028,6 +8996,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9111,16 +9111,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9235,22 +9235,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9499,16 +9499,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9629,16 +9629,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9759,16 +9759,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9883,28 +9883,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -10397,28 +10397,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11047,10 +11047,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11177,10 +11177,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
